--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>1428.767575114999</v>
+        <v>163.240662861384</v>
       </c>
       <c r="R2">
-        <v>12858.90817603499</v>
+        <v>1469.165965752456</v>
       </c>
       <c r="S2">
-        <v>0.02331945586096941</v>
+        <v>0.003192841603107365</v>
       </c>
       <c r="T2">
-        <v>0.02331945586096941</v>
+        <v>0.003192841603107365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>20440.2012027142</v>
+        <v>14244.68420078048</v>
       </c>
       <c r="R3">
-        <v>183961.8108244278</v>
+        <v>128202.1578070243</v>
       </c>
       <c r="S3">
-        <v>0.3336122529919972</v>
+        <v>0.2786133034634782</v>
       </c>
       <c r="T3">
-        <v>0.3336122529919972</v>
+        <v>0.2786133034634782</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>3126.701992333412</v>
+        <v>2178.984542717046</v>
       </c>
       <c r="R4">
-        <v>28140.3179310007</v>
+        <v>19610.86088445341</v>
       </c>
       <c r="S4">
-        <v>0.05103208553340487</v>
+        <v>0.04261899197519517</v>
       </c>
       <c r="T4">
-        <v>0.05103208553340487</v>
+        <v>0.04261899197519516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>1285.518534558686</v>
+        <v>210.7547868795471</v>
       </c>
       <c r="R5">
-        <v>11569.66681102818</v>
+        <v>1896.793081915924</v>
       </c>
       <c r="S5">
-        <v>0.0209814341025247</v>
+        <v>0.0041221754421228</v>
       </c>
       <c r="T5">
-        <v>0.0209814341025247</v>
+        <v>0.004122175442122799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>18390.85513547081</v>
@@ -818,10 +818,10 @@
         <v>165517.6962192373</v>
       </c>
       <c r="S6">
-        <v>0.3001641008983392</v>
+        <v>0.3597087047062124</v>
       </c>
       <c r="T6">
-        <v>0.3001641008983392</v>
+        <v>0.3597087047062123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>2813.217092264048</v>
@@ -880,10 +880,10 @@
         <v>25318.95383037643</v>
       </c>
       <c r="S7">
-        <v>0.04591557993965249</v>
+        <v>0.05502401431915647</v>
       </c>
       <c r="T7">
-        <v>0.04591557993965248</v>
+        <v>0.05502401431915646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>787.9059837792252</v>
+        <v>129.1735227680062</v>
       </c>
       <c r="R8">
-        <v>7091.153854013027</v>
+        <v>1162.561704912056</v>
       </c>
       <c r="S8">
-        <v>0.01285971149636039</v>
+        <v>0.002526518762447337</v>
       </c>
       <c r="T8">
-        <v>0.01285971149636039</v>
+        <v>0.002526518762447336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>11271.92212209433</v>
@@ -1004,10 +1004,10 @@
         <v>101447.299098849</v>
       </c>
       <c r="S9">
-        <v>0.1839733032668428</v>
+        <v>0.2204687316723869</v>
       </c>
       <c r="T9">
-        <v>0.1839733032668428</v>
+        <v>0.2204687316723868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>1724.246303010924</v>
@@ -1066,10 +1066,10 @@
         <v>15518.21672709832</v>
       </c>
       <c r="S10">
-        <v>0.02814207590990901</v>
+        <v>0.03372471805589355</v>
       </c>
       <c r="T10">
-        <v>0.02814207590990901</v>
+        <v>0.03372471805589354</v>
       </c>
     </row>
   </sheetData>
